--- a/test_output/Ingresos_Egresos_Partida_24101.xlsx
+++ b/test_output/Ingresos_Egresos_Partida_24101.xlsx
@@ -645,7 +645,7 @@
     <row r="7" ht="29.25" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Resumen de ingresos y egresos correspondientes al mes de {{MES}} del 2025, por concepto de los recursos asignados a la Partida Presupuestal {{PARTIDA}} "{{DESCRIPCION}}.".</t>
+          <t>Relación de ingresos y egresos correspondientes al mes de marzo del 2025, de los recursos asignados a la Partida Presupuestal 24101 "Materiales y útiles de oficina".</t>
         </is>
       </c>
     </row>
